--- a/elb_info.xlsx
+++ b/elb_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:loadbalancer/app/suri-tm-lb/6d8ba95f5963ba46</t>
+          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:loadbalancer/app/suri-tm-lb/a0b625daa05bd7e2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:targetgroup/suri-tm-tg/b9f504be0e58e783</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:loadbalancer/app/suri-tm-lb/1a4f74b91052233f</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:targetgroup/suri-tm-tg/3131d1c449ab0c3d</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:loadbalancer/app/suri-tm-lb/a0f05743c62435e9</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:targetgroup/suri-tm-tg/b9d0e998425ad679</t>
+          <t>arn:aws:elasticloadbalancing:us-east-1:060095847722:targetgroup/suri-tm-tg/c2a48f0c6ea6fbcd</t>
         </is>
       </c>
     </row>
